--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>845944.5903792162</v>
+        <v>846728.7363172449</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443407</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>146.8920447697785</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>162.1947822849135</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>205.5178444382804</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,19 +791,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>13.94347069460048</v>
-      </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>3.513898778128056</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>205.5178444382804</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
-        <v>153.7680905114898</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
-        <v>119.8469440170073</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>125.2000597604661</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>165.7173798661024</v>
       </c>
       <c r="G8" t="n">
-        <v>164.1533724249812</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
         <v>205.5178444382804</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>80.11569190233639</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>107.2258708963844</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1497,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>152.175786527775</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V12" t="n">
-        <v>7.068036743741261</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>36.6156848048709</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>7.814628069999132</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1867,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,64 +2083,64 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>19.96124337932746</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,58 +2326,58 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F23" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>45.7693770721695</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,17 +2554,17 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -2573,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.13060206523731</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,58 +2803,58 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>52.00379634267769</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>49.23175083062949</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86.55760223631096</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>85.6817074694044</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>14.86695539771652</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,43 +3435,43 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3597,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>159.3125043259865</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>94.13192970285996</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3785,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>56.18438237580115</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3870,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3913,16 +3915,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>181.0201173812374</v>
+        <v>128.7350472114737</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4116,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.91422817269779</v>
+        <v>450.6444820731278</v>
       </c>
       <c r="C2" t="n">
-        <v>50.91422817269779</v>
+        <v>243.0506998122385</v>
       </c>
       <c r="D2" t="n">
-        <v>50.91422817269779</v>
+        <v>243.0506998122385</v>
       </c>
       <c r="E2" t="n">
-        <v>50.91422817269779</v>
+        <v>243.0506998122385</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
         <v>28.51141680214578</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>673.6955749553656</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>673.6955749553656</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>673.6955749553656</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>673.6955749553656</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>466.1017926944763</v>
+        <v>658.2382643340171</v>
       </c>
       <c r="X2" t="n">
-        <v>258.5080104335871</v>
+        <v>658.2382643340171</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.91422817269779</v>
+        <v>450.6444820731278</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4413,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>446.4674385625565</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>238.8736563016672</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V3" t="n">
-        <v>238.8736563016672</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W3" t="n">
-        <v>224.7893424687375</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>437.5108582377214</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>437.5108582377214</v>
       </c>
     </row>
     <row r="4">
@@ -4531,7 +4533,7 @@
         <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.1562919452729</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C5" t="n">
-        <v>459.1562919452729</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D5" t="n">
+        <v>258.5080104335871</v>
+      </c>
+      <c r="E5" t="n">
+        <v>258.5080104335871</v>
+      </c>
+      <c r="F5" t="n">
         <v>251.5625096843836</v>
       </c>
-      <c r="E5" t="n">
-        <v>251.5625096843836</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43.96872742349432</v>
-      </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
         <v>28.51141680214578</v>
@@ -4574,7 +4576,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4604,13 +4606,13 @@
         <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>459.1562919452729</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>459.1562919452729</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>459.1562919452729</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4652,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4674,19 +4676,19 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U6" t="n">
-        <v>513.308066045118</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V6" t="n">
-        <v>392.2505468360198</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W6" t="n">
-        <v>392.2505468360198</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y6" t="n">
         <v>184.6567645751305</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>182.2529148530233</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4805,7 +4807,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
         <v>176.2910403306274</v>
@@ -4823,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W8" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X8" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y8" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
         <v>17.19556020784815</v>
@@ -4890,43 +4892,43 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U9" t="n">
-        <v>639.976906990516</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V9" t="n">
-        <v>432.3831247296267</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3831247296267</v>
+        <v>338.1584780611581</v>
       </c>
       <c r="X9" t="n">
-        <v>224.7893424687375</v>
+        <v>338.1584780611581</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C12" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D12" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E12" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F12" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5133,10 +5135,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5147,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>567.1889326213861</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>567.1889326213861</v>
       </c>
       <c r="V12" t="n">
-        <v>130.5646958002688</v>
+        <v>567.1889326213861</v>
       </c>
       <c r="W12" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X12" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y12" t="n">
-        <v>130.5646958002688</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="13">
@@ -5273,7 +5275,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.8105631474831</v>
+        <v>785.0858375461813</v>
       </c>
       <c r="C15" t="n">
-        <v>129.8105631474831</v>
+        <v>610.6328082650543</v>
       </c>
       <c r="D15" t="n">
-        <v>129.8105631474831</v>
+        <v>461.6983986038031</v>
       </c>
       <c r="E15" t="n">
-        <v>129.8105631474831</v>
+        <v>302.4609435983476</v>
       </c>
       <c r="F15" t="n">
-        <v>129.8105631474831</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G15" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,46 +5363,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5501,16 +5503,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5631,13 +5633,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5698,19 +5700,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>130.4977770061727</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>130.4977770061727</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>130.4977770061727</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>130.4977770061727</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>279.432186667424</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>694.6722890434539</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>520.2192597623269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>371.2848501010757</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>212.0473950956202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>65.51283712250515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y24" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6342,13 +6344,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>85.06963004479587</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C30" t="n">
-        <v>360.2295980564601</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D30" t="n">
-        <v>211.2951883952089</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E30" t="n">
-        <v>211.2951883952089</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W32" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>655.0361258579891</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C33" t="n">
-        <v>655.0361258579891</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>506.1017161967378</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>506.1017161967378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>359.5671582236228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8363328062383</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>107.4671972138176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>877.5099762486116</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>704.0926316992804</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F35" t="n">
         <v>718.7806050553886</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>478.8011081705279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>319.5636531650724</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>173.0290951919573</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>34.29826977457284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7199,22 +7201,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>397.4029371266039</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
+        <v>487.8483949674443</v>
+      </c>
+      <c r="N39" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N39" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>629.7180894199046</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X39" t="n">
-        <v>660.701031422288</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>565.6182741466719</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7351,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7412,13 +7414,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
         <v>672.8764276104736</v>
@@ -7433,10 +7435,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
         <v>639.2227743377304</v>
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="G43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7585,34 +7587,34 @@
         <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
     </row>
     <row r="44">
@@ -7649,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
         <v>469.413761616576</v>
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
         <v>752.6768192397923</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>639.2227743377304</v>
+        <v>590.8664470822965</v>
       </c>
       <c r="U45" t="n">
-        <v>431.628992076841</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="V45" t="n">
-        <v>431.628992076841</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="W45" t="n">
-        <v>224.0352098159517</v>
+        <v>383.2726648214073</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
     </row>
     <row r="46">
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8073,10 +8075,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8538,7 +8540,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8547,10 +8549,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8781,13 +8783,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>368.5691090902119</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.0431814381598</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,7 +11071,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11148,7 +11150,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>47.98894216704664</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>225.732550405684</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23513,10 +23515,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>129.9174988449964</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>224.9859590794261</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>92.27420085716901</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>114.7662707668343</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F23" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>91.57414009104113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>90.01494526515901</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24385,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>46.33425578299912</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24461,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.40258158463</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>380.9243455904444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>93.06541605070619</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.11176633258114</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>176.6722207847417</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24965,22 +24967,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>2.839030615104122</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.47612668323873</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.0665496686753</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>97.36848883877994</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25439,25 +25441,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>328.0572133466886</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25485,10 +25487,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>40.8522243688351</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>111.5507660744444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>115.2022481737659</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25673,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25707,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>91.2606831888376</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25758,10 +25760,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>19.14461131358425</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25801,16 +25803,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25950,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>19.14461131358425</v>
+        <v>71.42968148334793</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26004,7 +26006,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418363.8358648462</v>
+        <v>418363.8358648463</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418363.8358648461</v>
+        <v>418363.8358648462</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440683.051878462</v>
+        <v>440683.0518784619</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440683.051878462</v>
+        <v>440683.0518784619</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440683.051878462</v>
+        <v>440683.0518784619</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440683.051878462</v>
+        <v>440683.0518784619</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440683.0518784619</v>
+        <v>440683.051878462</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418363.8358648462</v>
+        <v>418363.8358648461</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418363.8358648464</v>
+        <v>418363.8358648462</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26319,25 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
       <c r="G2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="I2" t="n">
         <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="K2" t="n">
         <v>191084.7734110323</v>
@@ -26350,7 +26352,7 @@
         <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
-        <v>181421.2881101713</v>
+        <v>181421.2881101714</v>
       </c>
       <c r="P2" t="n">
         <v>181421.2881101714</v>
@@ -26433,10 +26435,10 @@
         <v>50385.00392753457</v>
       </c>
       <c r="H4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="I4" t="n">
         <v>50385.00392753458</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753458</v>
@@ -26445,19 +26447,19 @@
         <v>50385.00392753457</v>
       </c>
       <c r="L4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="M4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="O4" t="n">
         <v>47787.18911168983</v>
       </c>
       <c r="P4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
     </row>
     <row r="5">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20777.11288928768</v>
+        <v>20777.11288928774</v>
       </c>
       <c r="C6" t="n">
-        <v>89650.86947097763</v>
+        <v>89650.8694709776</v>
       </c>
       <c r="D6" t="n">
-        <v>89650.86947097752</v>
+        <v>89650.86947097737</v>
       </c>
       <c r="E6" t="n">
         <v>121138.6140566341</v>
@@ -26543,7 +26545,7 @@
         <v>126046.100719736</v>
       </c>
       <c r="J6" t="n">
-        <v>72273.58982952667</v>
+        <v>72273.58982952654</v>
       </c>
       <c r="K6" t="n">
         <v>126046.1007197361</v>
@@ -26552,13 +26554,13 @@
         <v>126046.1007197361</v>
       </c>
       <c r="M6" t="n">
-        <v>126046.1007197359</v>
+        <v>126046.100719736</v>
       </c>
       <c r="N6" t="n">
         <v>126046.100719736</v>
       </c>
       <c r="O6" t="n">
-        <v>121138.614056634</v>
+        <v>121138.6140566341</v>
       </c>
       <c r="P6" t="n">
         <v>121138.6140566341</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27427,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>62.12802481646688</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>187.0461864324996</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>180.7200942177732</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27509,19 +27511,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>237.7515124663191</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>202.2590864253494</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.36645333167579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>207.7909968509045</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27676,10 +27678,10 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
-        <v>195.4728782059232</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27746,22 +27748,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>112.953643132418</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>80.48263601683824</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>241.1586658756091</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>251.1493650901538</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>122.2344140318545</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27947,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>145.8256901786384</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>144.4691122645352</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -28029,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.1469913286912</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34793,10 +34795,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35267,10 +35269,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35501,13 +35503,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>226.4350751681936</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9091475161414</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,7 +37791,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37868,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846728.7363172449</v>
+        <v>777068.4006427175</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>162.1947822849135</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>192.5500720523643</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>75.24236401881102</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3.513898778128056</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>199.4261177940757</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>184.1592934053484</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>125.2000597604661</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>165.7173798661024</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>55.72592944352833</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>107.2258708963844</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>86.80093154293684</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>152.175786527775</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,52 +1621,52 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.6156848048709</v>
+        <v>58.76237198944622</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,16 +1694,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>80.60252893839859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,61 +2083,61 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.7348634483604738</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>111.1751113141405</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2244,70 +2244,70 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>220.2131257424249</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,64 +2563,64 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2730,52 +2730,52 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>77.18032238670133</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>49.23175083062949</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>85.6817074694044</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,64 +3277,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>1.944519418634053</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
@@ -3568,10 +3568,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>159.3125043259865</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>179.238074506875</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>31.15099944008764</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>56.18438237580115</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>105.3690580549764</v>
       </c>
     </row>
     <row r="43">
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3939,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3988,17 +3988,17 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>74.11336618127692</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.7350472114737</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450.6444820731278</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C2" t="n">
-        <v>243.0506998122385</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D2" t="n">
-        <v>243.0506998122385</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E2" t="n">
-        <v>243.0506998122385</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F2" t="n">
+        <v>251.5625096843836</v>
+      </c>
+      <c r="G2" t="n">
         <v>236.1051990630351</v>
       </c>
-      <c r="G2" t="n">
-        <v>28.51141680214578</v>
-      </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
         <v>28.51141680214578</v>
@@ -4333,10 +4333,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W2" t="n">
-        <v>658.2382643340171</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X2" t="n">
-        <v>658.2382643340171</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>450.6444820731278</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.2955212176533</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="C3" t="n">
-        <v>269.2955212176533</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="D3" t="n">
-        <v>269.2955212176533</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="E3" t="n">
-        <v>269.2955212176533</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="F3" t="n">
-        <v>269.2955212176533</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>206.5670836980577</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>93.19794810563705</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4415,16 +4415,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>441.0602509429012</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X3" t="n">
-        <v>437.5108582377214</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.5108582377214</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D5" t="n">
-        <v>258.5080104335871</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E5" t="n">
-        <v>258.5080104335871</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F5" t="n">
         <v>251.5625096843836</v>
@@ -4561,7 +4561,7 @@
         <v>236.1051990630351</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I5" t="n">
         <v>28.51141680214578</v>
@@ -4579,40 +4579,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4652,46 +4652,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>518.7152536647734</v>
+        <v>636.0518894648909</v>
       </c>
       <c r="W6" t="n">
-        <v>311.1214714038841</v>
+        <v>636.0518894648909</v>
       </c>
       <c r="X6" t="n">
-        <v>311.1214714038841</v>
+        <v>428.4581072040016</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>220.8643249431123</v>
       </c>
     </row>
     <row r="7">
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V8" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W8" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X8" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130.5646958002688</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C9" t="n">
-        <v>130.5646958002688</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D9" t="n">
-        <v>130.5646958002688</v>
+        <v>664.6130306862817</v>
       </c>
       <c r="E9" t="n">
-        <v>130.5646958002688</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F9" t="n">
-        <v>130.5646958002688</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>338.1584780611581</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X9" t="n">
-        <v>338.1584780611581</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y9" t="n">
-        <v>130.5646958002688</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>732.290080796757</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>732.290080796757</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>732.290080796757</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>732.290080796757</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>732.290080796757</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>732.290080796757</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>732.290080796757</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5053,40 +5053,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.5951503604969</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C12" t="n">
-        <v>359.5951503604969</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="D12" t="n">
-        <v>359.5951503604969</v>
+        <v>263.3565911897471</v>
       </c>
       <c r="E12" t="n">
-        <v>359.5951503604969</v>
+        <v>104.1191361842916</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>567.1889326213861</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>567.1889326213861</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>567.1889326213861</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>359.5951503604969</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X12" t="n">
-        <v>359.5951503604969</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.5951503604969</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,19 +5281,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5314,16 +5314,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>785.0858375461813</v>
+        <v>453.9521347426471</v>
       </c>
       <c r="C15" t="n">
-        <v>610.6328082650543</v>
+        <v>279.4991054615201</v>
       </c>
       <c r="D15" t="n">
-        <v>461.6983986038031</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E15" t="n">
-        <v>302.4609435983476</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F15" t="n">
-        <v>155.9263856252326</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H15" t="n">
         <v>17.19556020784815</v>
@@ -5360,49 +5360,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5469,19 +5469,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>191.7516008032143</v>
       </c>
     </row>
     <row r="19">
@@ -5712,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.557987394803</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.02342942168795</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.02342942168795</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.02342942168795</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5834,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M21" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N21" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>678.3417187247995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>852.7947480059265</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>852.7947480059265</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>609.3459713618265</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>401.4944711562937</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.4632136343998</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>69.01018435327282</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D30" t="n">
-        <v>69.01018435327282</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E30" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>69.01018435327282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.6785506544679</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6660,10 +6660,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6782,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>877.5099762486116</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>704.0926316992804</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T33" t="n">
-        <v>501.9060370580465</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U33" t="n">
-        <v>501.9060370580465</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>501.9060370580465</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>501.9060370580465</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>501.9060370580465</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6888,7 +6888,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>962.2293816994886</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>962.2293816994886</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D35" t="n">
-        <v>962.2293816994886</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>962.2293816994886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>962.2293816994886</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,7 +7025,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>718.6442178376129</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>510.883919072659</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7119,10 +7119,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7204,19 +7204,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7259,16 +7259,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>629.7180894199046</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>401.4944711562937</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>401.4944711562937</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>401.4944711562937</v>
+        <v>681.8390659555673</v>
       </c>
       <c r="X39" t="n">
-        <v>401.4944711562937</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="40">
@@ -7356,25 +7356,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7390,13 +7390,13 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
         <v>16.44142755506243</v>
@@ -7423,7 +7423,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7438,25 +7438,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W41" t="n">
-        <v>639.2227743377304</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X41" t="n">
-        <v>639.2227743377304</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C42" t="n">
-        <v>232.4307839502161</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7496,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
         <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7535,7 +7535,7 @@
         <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>804.3357255886647</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.3357255886647</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G44" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7651,13 +7651,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>672.8764276104736</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X44" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y44" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="T44" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="U44" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="V44" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="W44" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X44" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>175.6788825605179</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C45" t="n">
-        <v>175.6788825605179</v>
+        <v>237.8379715698713</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>237.8379715698713</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>237.8379715698713</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>91.30341359675629</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7730,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>590.8664470822965</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>383.2726648214073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V45" t="n">
-        <v>383.2726648214073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W45" t="n">
-        <v>383.2726648214073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X45" t="n">
-        <v>175.6788825605179</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.6788825605179</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="46">
@@ -7830,16 +7830,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
         <v>16.44142755506243</v>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8549,7 +8549,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8701,13 +8701,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8786,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9023,10 +9023,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10907,19 +10907,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11071,10 +11071,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11144,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,7 +11308,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11390,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>344.1125915454647</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,13 +23275,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>58.26828085044704</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>47.98894216704664</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23399,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,13 +23509,13 @@
         <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.9174988449964</v>
+        <v>107.7708116604211</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,16 +23582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>31.63291529809787</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24056,10 +24056,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>88.66176940305461</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>114.7662707668343</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>161.7172443298368</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24338,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>90.01494526515901</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24387,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>181.0016451065613</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>95.5281766016144</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>88.11176633258114</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,10 +24815,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,7 +24931,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24967,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>345.9756526602163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24998,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.47612668323873</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25128,10 +25128,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>203.8284657848434</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25444,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
@@ -25456,10 +25456,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>40.8522243688351</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>72.45690865404458</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>191.9448501240437</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>91.2606831888376</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>100.313637722328</v>
       </c>
     </row>
     <row r="43">
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,13 +25827,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>63.23015098193372</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>71.42968148334793</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440683.0518784619</v>
+        <v>440683.0518784618</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440683.051878462</v>
+        <v>440683.0518784618</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418363.8358648461</v>
+        <v>418363.8358648463</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418363.8358648462</v>
+        <v>418363.8358648463</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="E2" t="n">
         <v>181421.2881101714</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101713</v>
+        <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
         <v>191084.7734110323</v>
@@ -26334,10 +26334,10 @@
         <v>191084.7734110323</v>
       </c>
       <c r="I2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="J2" t="n">
         <v>191084.7734110323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>191084.7734110322</v>
       </c>
       <c r="K2" t="n">
         <v>191084.7734110323</v>
@@ -26349,10 +26349,10 @@
         <v>191084.7734110322</v>
       </c>
       <c r="N2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="O2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
       <c r="P2" t="n">
         <v>181421.2881101714</v>
@@ -26426,10 +26426,10 @@
         <v>336325.0632591379</v>
       </c>
       <c r="E4" t="n">
+        <v>47787.18911168982</v>
+      </c>
+      <c r="F4" t="n">
         <v>47787.18911168983</v>
-      </c>
-      <c r="F4" t="n">
-        <v>47787.18911168982</v>
       </c>
       <c r="G4" t="n">
         <v>50385.00392753457</v>
@@ -26438,19 +26438,19 @@
         <v>50385.00392753457</v>
       </c>
       <c r="I4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753458</v>
       </c>
       <c r="K4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="L4" t="n">
         <v>50385.00392753457</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>50385.00392753458</v>
-      </c>
-      <c r="M4" t="n">
-        <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
         <v>50385.00392753458</v>
@@ -26459,7 +26459,7 @@
         <v>47787.18911168983</v>
       </c>
       <c r="P4" t="n">
-        <v>47787.18911168983</v>
+        <v>47787.18911168982</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20777.11288928774</v>
+        <v>20777.1128892878</v>
       </c>
       <c r="C6" t="n">
-        <v>89650.8694709776</v>
+        <v>89650.86947097754</v>
       </c>
       <c r="D6" t="n">
-        <v>89650.86947097737</v>
+        <v>89650.86947097743</v>
       </c>
       <c r="E6" t="n">
-        <v>121138.6140566341</v>
+        <v>108500.4519017736</v>
       </c>
       <c r="F6" t="n">
-        <v>121138.6140566341</v>
+        <v>108500.4519017736</v>
       </c>
       <c r="G6" t="n">
-        <v>116317.0577455689</v>
+        <v>104099.0471255285</v>
       </c>
       <c r="H6" t="n">
-        <v>126046.100719736</v>
+        <v>113828.0900996956</v>
       </c>
       <c r="I6" t="n">
-        <v>126046.100719736</v>
+        <v>113828.0900996955</v>
       </c>
       <c r="J6" t="n">
-        <v>72273.58982952654</v>
+        <v>60055.57920948615</v>
       </c>
       <c r="K6" t="n">
-        <v>126046.1007197361</v>
+        <v>113828.0900996956</v>
       </c>
       <c r="L6" t="n">
-        <v>126046.1007197361</v>
+        <v>113828.0900996956</v>
       </c>
       <c r="M6" t="n">
-        <v>126046.100719736</v>
+        <v>113828.0900996955</v>
       </c>
       <c r="N6" t="n">
-        <v>126046.100719736</v>
+        <v>113828.0900996955</v>
       </c>
       <c r="O6" t="n">
-        <v>121138.6140566341</v>
+        <v>108500.4519017735</v>
       </c>
       <c r="P6" t="n">
-        <v>121138.6140566341</v>
+        <v>108500.4519017736</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>187.0461864324996</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>193.6878666036893</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>14.15426883260406</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>202.2590864253494</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>93.5510711867108</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.11912650183328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>207.7909968509045</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>207.4499279476357</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27712,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>48.64129374407688</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>80.48263601683824</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579238</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>241.1586658756091</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>256.2226087030549</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27909,13 +27909,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27937,25 +27937,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>91.71913612111042</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>144.4691122645352</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>49.05569651810571</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35269,7 +35269,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35421,13 +35421,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35506,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35664,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35743,10 +35743,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36688,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37393,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,10 +37791,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38028,7 +38028,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38110,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
